--- a/output.xlsx
+++ b/output.xlsx
@@ -7,15 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Race 2 - Furphy Plate" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Race 3 - TAB Trophy" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Race 4 - The Schweppervescence Plate" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Race 5 - The Macca's Run" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Race 6 - MSS Security Subzero Handicap" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Race 7 - Lexus Melbourne Cup" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Race 8 - Howden Desirable Stakes" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Race 9 - The Hong Kong Jockey Club Stakes" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Race 10 - Paramount+ Trophy" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Race  1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Race  2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Race  3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Race  4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Race  5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Race  6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Race  7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Race  8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Race  9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Race 10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,7 +548,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A N72</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -703,6 +704,579 @@
       </c>
       <c r="G9" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Num</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Br</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Starts</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Winrate</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Win Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>43</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>39</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>19</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +1346,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A N81</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -2056,7 +2630,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A N87</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3775,7 +4349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A N61</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4435,7 +5009,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A N48</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E18" t="n">
